--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="H2">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="I2">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="J2">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N2">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q2">
-        <v>573.3981181225448</v>
+        <v>8.341826611253333</v>
       </c>
       <c r="R2">
-        <v>573.3981181225448</v>
+        <v>75.07643950128001</v>
       </c>
       <c r="S2">
-        <v>0.3194928908450965</v>
+        <v>0.003919786346899604</v>
       </c>
       <c r="T2">
-        <v>0.3194928908450965</v>
+        <v>0.003919786346899603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="H3">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="I3">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="J3">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N3">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q3">
-        <v>590.4025387891429</v>
+        <v>8.051575137116</v>
       </c>
       <c r="R3">
-        <v>590.4025387891429</v>
+        <v>72.464176234044</v>
       </c>
       <c r="S3">
-        <v>0.3289676193874675</v>
+        <v>0.00378339850062668</v>
       </c>
       <c r="T3">
-        <v>0.3289676193874675</v>
+        <v>0.00378339850062668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="H4">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="I4">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="J4">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N4">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q4">
-        <v>325.1154499672103</v>
+        <v>5.154549277752</v>
       </c>
       <c r="R4">
-        <v>325.1154499672103</v>
+        <v>46.39094349976801</v>
       </c>
       <c r="S4">
-        <v>0.18115175422712</v>
+        <v>0.002422099238564467</v>
       </c>
       <c r="T4">
-        <v>0.18115175422712</v>
+        <v>0.002422099238564466</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="H5">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="I5">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="J5">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N5">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q5">
-        <v>111.9086700218095</v>
+        <v>1.629442413424</v>
       </c>
       <c r="R5">
-        <v>111.9086700218095</v>
+        <v>14.664981720816</v>
       </c>
       <c r="S5">
-        <v>0.06235462476397011</v>
+        <v>0.0007656675717261041</v>
       </c>
       <c r="T5">
-        <v>0.06235462476397011</v>
+        <v>0.0007656675717261041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.152554721020667</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="H6">
-        <v>0.152554721020667</v>
+        <v>60.237349</v>
       </c>
       <c r="I6">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="J6">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N6">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q6">
-        <v>4.376137326597536</v>
+        <v>622.2842094776845</v>
       </c>
       <c r="R6">
-        <v>4.376137326597536</v>
+        <v>5600.55788529916</v>
       </c>
       <c r="S6">
-        <v>0.002438349065022518</v>
+        <v>0.2924085169681266</v>
       </c>
       <c r="T6">
-        <v>0.002438349065022518</v>
+        <v>0.2924085169681266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.152554721020667</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="H7">
-        <v>0.152554721020667</v>
+        <v>60.237349</v>
       </c>
       <c r="I7">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="J7">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N7">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q7">
-        <v>4.505913964581483</v>
+        <v>600.6320081612937</v>
       </c>
       <c r="R7">
-        <v>4.505913964581483</v>
+        <v>5405.688073451644</v>
       </c>
       <c r="S7">
-        <v>0.002510659580043755</v>
+        <v>0.2822342461452572</v>
       </c>
       <c r="T7">
-        <v>0.002510659580043755</v>
+        <v>0.2822342461452572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.152554721020667</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="H8">
-        <v>0.152554721020667</v>
+        <v>60.237349</v>
       </c>
       <c r="I8">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="J8">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N8">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q8">
-        <v>2.481260072344703</v>
+        <v>384.519455030694</v>
       </c>
       <c r="R8">
-        <v>2.481260072344703</v>
+        <v>3460.675095276246</v>
       </c>
       <c r="S8">
-        <v>0.001382538463934232</v>
+        <v>0.1806839413220714</v>
       </c>
       <c r="T8">
-        <v>0.001382538463934232</v>
+        <v>0.1806839413220713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.152554721020667</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="H9">
-        <v>0.152554721020667</v>
+        <v>60.237349</v>
       </c>
       <c r="I9">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="J9">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N9">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q9">
-        <v>0.8540797267626608</v>
+        <v>121.5532678129614</v>
       </c>
       <c r="R9">
-        <v>0.8540797267626608</v>
+        <v>1093.979410316652</v>
       </c>
       <c r="S9">
-        <v>0.0004758864605434147</v>
+        <v>0.05711732715128802</v>
       </c>
       <c r="T9">
-        <v>0.0004758864605434147</v>
+        <v>0.05711732715128802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.26846942958069</v>
+        <v>0.174593</v>
       </c>
       <c r="H10">
-        <v>2.26846942958069</v>
+        <v>0.523779</v>
       </c>
       <c r="I10">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197522</v>
       </c>
       <c r="J10">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197523</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N10">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q10">
-        <v>65.07260921599811</v>
+        <v>5.410918746706667</v>
       </c>
       <c r="R10">
-        <v>65.07260921599811</v>
+        <v>48.69826872036</v>
       </c>
       <c r="S10">
-        <v>0.03625794256410392</v>
+        <v>0.002542566084856231</v>
       </c>
       <c r="T10">
-        <v>0.03625794256410392</v>
+        <v>0.002542566084856231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.26846942958069</v>
+        <v>0.174593</v>
       </c>
       <c r="H11">
-        <v>2.26846942958069</v>
+        <v>0.523779</v>
       </c>
       <c r="I11">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197522</v>
       </c>
       <c r="J11">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197523</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N11">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q11">
-        <v>67.00237142834199</v>
+        <v>5.222647374517</v>
       </c>
       <c r="R11">
-        <v>67.00237142834199</v>
+        <v>47.003826370653</v>
       </c>
       <c r="S11">
-        <v>0.03733319078759671</v>
+        <v>0.002454098224204997</v>
       </c>
       <c r="T11">
-        <v>0.03733319078759671</v>
+        <v>0.002454098224204997</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.26846942958069</v>
+        <v>0.174593</v>
       </c>
       <c r="H12">
-        <v>2.26846942958069</v>
+        <v>0.523779</v>
       </c>
       <c r="I12">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197522</v>
       </c>
       <c r="J12">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N12">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q12">
-        <v>36.89602382210513</v>
+        <v>3.343494011274</v>
       </c>
       <c r="R12">
-        <v>36.89602382210513</v>
+        <v>30.091446101466</v>
       </c>
       <c r="S12">
-        <v>0.02055817230480449</v>
+        <v>0.001571092614014823</v>
       </c>
       <c r="T12">
-        <v>0.02055817230480449</v>
+        <v>0.001571092614014823</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.174593</v>
+      </c>
+      <c r="H13">
+        <v>0.523779</v>
+      </c>
+      <c r="I13">
+        <v>0.007064406543197522</v>
+      </c>
+      <c r="J13">
+        <v>0.007064406543197523</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.053716000000001</v>
+      </c>
+      <c r="N13">
+        <v>18.161148</v>
+      </c>
+      <c r="O13">
+        <v>0.07030309157387134</v>
+      </c>
+      <c r="P13">
+        <v>0.07030309157387132</v>
+      </c>
+      <c r="Q13">
+        <v>1.056936437588</v>
+      </c>
+      <c r="R13">
+        <v>9.512427938292001</v>
+      </c>
+      <c r="S13">
+        <v>0.0004966496201214713</v>
+      </c>
+      <c r="T13">
+        <v>0.0004966496201214713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="H14">
+        <v>12.574763</v>
+      </c>
+      <c r="I14">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="J14">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.99161333333333</v>
+      </c>
+      <c r="N14">
+        <v>92.97484</v>
+      </c>
+      <c r="O14">
+        <v>0.3599121977633812</v>
+      </c>
+      <c r="P14">
+        <v>0.3599121977633811</v>
+      </c>
+      <c r="Q14">
+        <v>129.9040642181022</v>
+      </c>
+      <c r="R14">
+        <v>1169.13657796292</v>
+      </c>
+      <c r="S14">
+        <v>0.0610413283634987</v>
+      </c>
+      <c r="T14">
+        <v>0.0610413283634987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="H15">
+        <v>12.574763</v>
+      </c>
+      <c r="I15">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="J15">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>29.913269</v>
+      </c>
+      <c r="N15">
+        <v>89.739807</v>
+      </c>
+      <c r="O15">
+        <v>0.3473891556493311</v>
+      </c>
+      <c r="P15">
+        <v>0.3473891556493311</v>
+      </c>
+      <c r="Q15">
+        <v>125.3840894100823</v>
+      </c>
+      <c r="R15">
+        <v>1128.456804690741</v>
+      </c>
+      <c r="S15">
+        <v>0.0589174127792422</v>
+      </c>
+      <c r="T15">
+        <v>0.05891741277924221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.26846942958069</v>
-      </c>
-      <c r="H13">
-        <v>2.26846942958069</v>
-      </c>
-      <c r="I13">
-        <v>0.1012256772068018</v>
-      </c>
-      <c r="J13">
-        <v>0.1012256772068018</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.59851390404992</v>
-      </c>
-      <c r="N13">
-        <v>5.59851390404992</v>
-      </c>
-      <c r="O13">
-        <v>0.06990688277481021</v>
-      </c>
-      <c r="P13">
-        <v>0.06990688277481021</v>
-      </c>
-      <c r="Q13">
-        <v>12.70005764241968</v>
-      </c>
-      <c r="R13">
-        <v>12.70005764241968</v>
-      </c>
-      <c r="S13">
-        <v>0.007076371550296671</v>
-      </c>
-      <c r="T13">
-        <v>0.007076371550296671</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="H16">
+        <v>12.574763</v>
+      </c>
+      <c r="I16">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="J16">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.150218</v>
+      </c>
+      <c r="N16">
+        <v>57.450654</v>
+      </c>
+      <c r="O16">
+        <v>0.2223955550134164</v>
+      </c>
+      <c r="P16">
+        <v>0.2223955550134163</v>
+      </c>
+      <c r="Q16">
+        <v>80.26981758277799</v>
+      </c>
+      <c r="R16">
+        <v>722.428358245002</v>
+      </c>
+      <c r="S16">
+        <v>0.03771842183876573</v>
+      </c>
+      <c r="T16">
+        <v>0.03771842183876574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="H17">
+        <v>12.574763</v>
+      </c>
+      <c r="I17">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="J17">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.053716000000001</v>
+      </c>
+      <c r="N17">
+        <v>18.161148</v>
+      </c>
+      <c r="O17">
+        <v>0.07030309157387134</v>
+      </c>
+      <c r="P17">
+        <v>0.07030309157387132</v>
+      </c>
+      <c r="Q17">
+        <v>25.37468132310266</v>
+      </c>
+      <c r="R17">
+        <v>228.372131907924</v>
+      </c>
+      <c r="S17">
+        <v>0.01192344723073573</v>
+      </c>
+      <c r="T17">
+        <v>0.01192344723073573</v>
       </c>
     </row>
   </sheetData>
